--- a/modelo-tabela-folha-ponto-teste.xlsx
+++ b/modelo-tabela-folha-ponto-teste.xlsx
@@ -75,9 +75,6 @@
     <t>MATRÍCULA:</t>
   </si>
   <si>
-    <t>FOLHA DE PONTO - CASA DO AUTISTA</t>
-  </si>
-  <si>
     <t>COLABORADOR(A)</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>FOLHA DE PONTO</t>
   </si>
 </sst>
 </file>
@@ -461,48 +461,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>857251</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38548</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="3065" b="16857"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2381250" y="1"/>
-          <a:ext cx="2409826" cy="714822"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -704,7 +662,7 @@
   <dimension ref="A1:I650"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="B1" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -728,7 +686,7 @@
     </row>
     <row r="2" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
@@ -739,7 +697,7 @@
     </row>
     <row r="3" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1299,33 +1257,33 @@
     </row>
     <row r="39" spans="3:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="10"/>
       <c r="F39" s="4"/>
       <c r="G39" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="3:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
       <c r="F40" s="26"/>
       <c r="G40" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40" s="35"/>
       <c r="I40" s="37"/>
     </row>
     <row r="41" spans="3:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
@@ -1336,7 +1294,7 @@
     </row>
     <row r="42" spans="3:9" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
@@ -1973,12 +1931,6 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddFooter>&amp;C
-Av. Das Américas nº 8445, sala 1218 – Barra da Tijuca, Rio de Janeiro, RJ; – CEP 22.793-081 
-Tels: 2517-3314 / e-mail: ecosbr@yahoo.com.br / site www.ecos-ong.com.br
-CNPJ: 02.539.959/0001-25</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/modelo-tabela-folha-ponto-teste.xlsx
+++ b/modelo-tabela-folha-ponto-teste.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\OneDrive\Documentos\Projetos Computação\Automatizacao-folha-de-ponto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E26466-DCCF-48D7-8D36-530D2689ADA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="4455" windowHeight="6855"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -100,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
@@ -352,12 +358,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -369,21 +375,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,35 +398,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -438,13 +443,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,6 +461,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -658,11 +666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I650"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="B1" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" showWhiteSpace="0" view="pageLayout" topLeftCell="B29" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -676,26 +684,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-    </row>
-    <row r="3" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="3:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="14" t="s">
         <v>22</v>
       </c>
@@ -1246,7 +1254,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1269,48 +1277,47 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="3:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="36" t="s">
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="G40" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="37"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" spans="3:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="3:9" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
     </row>
     <row r="43" spans="3:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
     </row>
     <row r="44" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
